--- a/lm/extTpls/tb_tpl_6月份.xlsx
+++ b/lm/extTpls/tb_tpl_6月份.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanjian/web/woniuStudioProjects/LavbAt2020/lm/extTpls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0FD3F-6F3E-CC47-BB56-918E194DF432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA24DD-FC92-AA41-872F-09CA9568DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29060" yWindow="2360" windowWidth="32000" windowHeight="16840" xr2:uid="{C40B1032-C6C3-EA4E-8FD4-E9613D234A39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,54 @@
   </si>
   <si>
     <t>读书/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡15，便利店11.5，充电宝1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店10.8，停车费5，咖啡16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝龙上网36，电动车更换后视镜25，便利店3.5，咖啡17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区停车费15，停车费24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉81，宜家沙发2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店21.5，货拉拉搬运费50，咖啡15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费15，咖啡16，便利店6，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费5，咖啡17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午茶11，咖啡16，油卡充值600，加油200，谭战转1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区停车费5，咖啡16，桶装水82，停车费6，浙大科技园停车费30，久久丫51，便利店10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤米松52，一点点13，买菜18，水果18，停车费5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,15 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D515C97-D3C3-C942-A1C8-0C31F76F8CC5}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="72.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28">
@@ -500,31 +549,31 @@
         <v>44356</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +581,351 @@
         <v>44357</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>31.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>73.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>81.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2081</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>86.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B10">
+        <v>37.6</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1827</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
